--- a/biology/Médecine/1326_en_santé_et_médecine/1326_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1326_en_santé_et_médecine/1326_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1326_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1326_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1326 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1326_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1326_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>28 août : La « miresse » Sarah de Saint-Gilles, signe à Marseille un contrat d'apprentissage où elle s'engage envers Salvet de Burgonor, étudiant originaire de Salon-de-Provence, à lui enseigner pendant sept mois l'art de la médecine (« artem medicine et phisice[1] »).
-Construction de l'hôpital Saint-Jacques de Nîmes, qui sera uni à l'hôtel-Dieu au XVe siècle et remplacé par l'hôtellerie de la Coquille[2].
-Fondation à Louvain, en Brabant, d'un hospice « exclusivement destiné à la séquestration des femmes aliénées » et qui sera confié en 1438 aux sœurs  de Nazareth[3].
-À la maladrerie de la Bajasse, fondée vers 1150 au Puy en Velay par Odilon de Chambon, « le précepteur [i.e. l'administrateur], le frère infirmier, les oblats et les lépreux eux-mêmes »  se placent sous l'autorité du prieur des chanoines réguliers de saint Augustin[4].
-À l'occasion de « la réorganisation de la maladrerie d'Épernay, ses biens passent sous le contrôle de l'abbaye [Saint-Martin], à charge pour elle de fournir aux nouveaux malades [indigents] le lit garni, le linge et la vaisselle[5] ».
-Mention de la plus ancienne pharmacie de Kotor, en Serbie[6].
-Le concile d'Avignon confirme les décrets du concile de Toulouse (1229) et du synode de Béziers (1246), qui interdisent aux Chrétiens de se faire soigner par un médecin juif[7], décrets qui seront encore renouvelés en 1337[8].
-1325-1326 : fondation à Paris par Louis de Bourbon, comte de Clermont, de l'hôpital du Saint-Sépulcre[9] « pour l'accueil des pèlerins revenus de Terre Sainte et pour servir de lieu de réunion à l'archiconfrérie du Saint-Sépulcre[10] », mais dont l'abbé Desfontaines écrit qu'« on prétend qu'il ne fut ni doté ni bâti[11] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>28 août : La « miresse » Sarah de Saint-Gilles, signe à Marseille un contrat d'apprentissage où elle s'engage envers Salvet de Burgonor, étudiant originaire de Salon-de-Provence, à lui enseigner pendant sept mois l'art de la médecine (« artem medicine et phisice »).
+Construction de l'hôpital Saint-Jacques de Nîmes, qui sera uni à l'hôtel-Dieu au XVe siècle et remplacé par l'hôtellerie de la Coquille.
+Fondation à Louvain, en Brabant, d'un hospice « exclusivement destiné à la séquestration des femmes aliénées » et qui sera confié en 1438 aux sœurs  de Nazareth.
+À la maladrerie de la Bajasse, fondée vers 1150 au Puy en Velay par Odilon de Chambon, « le précepteur [i.e. l'administrateur], le frère infirmier, les oblats et les lépreux eux-mêmes »  se placent sous l'autorité du prieur des chanoines réguliers de saint Augustin.
+À l'occasion de « la réorganisation de la maladrerie d'Épernay, ses biens passent sous le contrôle de l'abbaye [Saint-Martin], à charge pour elle de fournir aux nouveaux malades [indigents] le lit garni, le linge et la vaisselle ».
+Mention de la plus ancienne pharmacie de Kotor, en Serbie.
+Le concile d'Avignon confirme les décrets du concile de Toulouse (1229) et du synode de Béziers (1246), qui interdisent aux Chrétiens de se faire soigner par un médecin juif, décrets qui seront encore renouvelés en 1337.
+1325-1326 : fondation à Paris par Louis de Bourbon, comte de Clermont, de l'hôpital du Saint-Sépulcre « pour l'accueil des pèlerins revenus de Terre Sainte et pour servir de lieu de réunion à l'archiconfrérie du Saint-Sépulcre », mais dont l'abbé Desfontaines écrit qu'« on prétend qu'il ne fut ni doté ni bâti ».</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1326_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1326_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mondino de Liuzzi (né vers 1270), médecin italien, auteur d'une Anathomia achevée en 1316, où il affirme avoir disséqué le cadavre de deux femmes, en janvier et mars 1315.</t>
         </is>
